--- a/biology/Zoologie/Fernand_Ogier_de_Baulny/Fernand_Ogier_de_Baulny.xlsx
+++ b/biology/Zoologie/Fernand_Ogier_de_Baulny/Fernand_Ogier_de_Baulny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fernand Ogier de Baulny est un entomologiste français, né le 17 janvier 1839 à Coulommiers et mort le 7 octobre 1870 dans la même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fernand de Baulny est le fils du capitaine Amédée Étienne Fare Marguerite Ogier de Baulny, ancien mousquetaire du roi Louis XVIII, officier de la Garde royale à Versailles et maire de Coulommiers, et petit-fils de François Maximilien Perrin de Boislaville, conseiller en la Cour des monnaies et maire de Coulommiers de 1815 à 1826.
 Fernand de Baulny se dirigea tôt vers des études en sciences naturelles et plus précisément vers l'entomologie. Il devint l'élève de l'abbé de Marseul, qui le présente à la Société entomologique de France dès 1856, dont Baulny est longtemps le membre le plus jeune.
@@ -550,7 +564,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1859. Note sur la larve du Progantha quadricornis. Ann. Soc. Ent. Fr., CCXIX
 1860. Notice sur quelques espèces de Coléoptères prises aux environs d’Auxerre et de Chatel-Censoir. Bull. Soc. nat. de l’Yonne, 24-38.
